--- a/developing/Results Homework DL.xlsx
+++ b/developing/Results Homework DL.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesco\Documents\Scuola\Università\Materie Università\Anno 4\Deep Learning\Homework\Deep-Learning-Project\developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FA53D2-FFC6-4620-8903-09AFDF1D9E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634054C4-814C-4C49-BDA9-15B09C2BBEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
   <si>
     <t>No SMOTE, No Upsample</t>
   </si>
@@ -214,14 +214,207 @@
   </si>
   <si>
     <t>0.963279</t>
+  </si>
+  <si>
+    <t>0.504725</t>
+  </si>
+  <si>
+    <t>0.931072</t>
+  </si>
+  <si>
+    <t>0.905317</t>
+  </si>
+  <si>
+    <t>0.959113</t>
+  </si>
+  <si>
+    <t>0.510848</t>
+  </si>
+  <si>
+    <t>0.966716</t>
+  </si>
+  <si>
+    <t>0.974474</t>
+  </si>
+  <si>
+    <t>0.959384</t>
+  </si>
+  <si>
+    <t>0.509028</t>
+  </si>
+  <si>
+    <t>0.924337</t>
+  </si>
+  <si>
+    <t>0.893009</t>
+  </si>
+  <si>
+    <t>0.958920</t>
+  </si>
+  <si>
+    <t>0.472476</t>
+  </si>
+  <si>
+    <t>0.549879</t>
+  </si>
+  <si>
+    <t>0.906041</t>
+  </si>
+  <si>
+    <t>0.859415</t>
+  </si>
+  <si>
+    <t>0.961756</t>
+  </si>
+  <si>
+    <t>0.539596</t>
+  </si>
+  <si>
+    <t>0.958842</t>
+  </si>
+  <si>
+    <t>0.955802</t>
+  </si>
+  <si>
+    <t>0.961982</t>
+  </si>
+  <si>
+    <t>0.966444</t>
+  </si>
+  <si>
+    <t>0.961891</t>
+  </si>
+  <si>
+    <t>0.964126</t>
+  </si>
+  <si>
+    <t>0.529045</t>
+  </si>
+  <si>
+    <t>0.480050</t>
+  </si>
+  <si>
+    <t>0.817149</t>
+  </si>
+  <si>
+    <t>0.960405</t>
+  </si>
+  <si>
+    <t>0.881099</t>
+  </si>
+  <si>
+    <t>0.530799</t>
+  </si>
+  <si>
+    <t>0.853659</t>
+  </si>
+  <si>
+    <t>0.958941</t>
+  </si>
+  <si>
+    <t>0.902326</t>
+  </si>
+  <si>
+    <t>0.488079</t>
+  </si>
+  <si>
+    <t>0.874830</t>
+  </si>
+  <si>
+    <t>0.959417</t>
+  </si>
+  <si>
+    <t>0.914388</t>
+  </si>
+  <si>
+    <t>0.493547</t>
+  </si>
+  <si>
+    <t>0.976708</t>
+  </si>
+  <si>
+    <t>0.961923</t>
+  </si>
+  <si>
+    <t>0.968373</t>
+  </si>
+  <si>
+    <t>0.509419</t>
+  </si>
+  <si>
+    <t>0.973451</t>
+  </si>
+  <si>
+    <t>0.961119</t>
+  </si>
+  <si>
+    <t>0.966916</t>
+  </si>
+  <si>
+    <t>0.512197</t>
+  </si>
+  <si>
+    <t>0.492918</t>
+  </si>
+  <si>
+    <t>0.851538</t>
+  </si>
+  <si>
+    <t>0.959024</t>
+  </si>
+  <si>
+    <t>0.901123</t>
+  </si>
+  <si>
+    <t>0.489931</t>
+  </si>
+  <si>
+    <t>0.723413</t>
+  </si>
+  <si>
+    <t>0.958876</t>
+  </si>
+  <si>
+    <t>0.821787</t>
+  </si>
+  <si>
+    <t>0.483749</t>
+  </si>
+  <si>
+    <t>0.623693</t>
+  </si>
+  <si>
+    <t>0.959464</t>
+  </si>
+  <si>
+    <t>0.750810</t>
+  </si>
+  <si>
+    <t>0.501646</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -237,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -421,7 +614,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -433,7 +626,59 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
@@ -442,7 +687,7 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -451,7 +696,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
@@ -464,7 +709,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -475,7 +720,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -488,36 +733,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -525,14 +756,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -543,10 +778,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -827,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V19"/>
+  <dimension ref="A1:V27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -841,48 +1088,45 @@
     <col min="5" max="5" width="5.46875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.41015625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.52734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.46875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.52734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="22" width="8.234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="22" width="8.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A1" s="5"/>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="7" t="s">
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="7" t="s">
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="9"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="10" t="s">
+      <c r="A2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -897,7 +1141,7 @@
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -912,7 +1156,7 @@
       <c r="L2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N2" s="3" t="s">
@@ -927,7 +1171,7 @@
       <c r="Q2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="S2" s="3" t="s">
@@ -944,66 +1188,86 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="22" t="s">
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="8"/>
+      <c r="R3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="23" t="s">
+      <c r="S3" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="T3" s="23" t="s">
+      <c r="T3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="U3" s="23" t="s">
+      <c r="U3" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="25"/>
+      <c r="C4" s="9"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="25"/>
+      <c r="H4" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M4" s="9"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="9" t="s">
         <v>57</v>
       </c>
       <c r="S4" s="1" t="s">
@@ -1020,28 +1284,38 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="9"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="25"/>
+      <c r="H5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="9"/>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="25" t="s">
+      <c r="R5" s="9" t="s">
         <v>32</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -1058,26 +1332,36 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A6" s="20"/>
-      <c r="B6" s="13" t="s">
+      <c r="A6" s="25"/>
+      <c r="B6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="9"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="2"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="25"/>
+      <c r="H6" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" s="9"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="25" t="s">
+      <c r="R6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="S6" s="1" t="s">
@@ -1094,26 +1378,36 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A7" s="20"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="25"/>
+      <c r="C7" s="9"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="25"/>
+      <c r="H7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="9"/>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="25" t="s">
+      <c r="R7" s="9" t="s">
         <v>48</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -1130,26 +1424,36 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="21"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="26"/>
+      <c r="B8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="5"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="10"/>
+      <c r="H8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="5"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="10" t="s">
+      <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
       <c r="S8" s="3" t="s">
@@ -1167,41 +1471,41 @@
     </row>
     <row r="11" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="7" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="7" t="s">
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="7" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="7" t="s">
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="8"/>
-      <c r="T12" s="8"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="9"/>
+      <c r="S12" s="15"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="10" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="3" t="s">
@@ -1216,7 +1520,7 @@
       <c r="G13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H13" s="10" t="s">
+      <c r="H13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="3" t="s">
@@ -1231,7 +1535,7 @@
       <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="10" t="s">
+      <c r="M13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="N13" s="3" t="s">
@@ -1246,7 +1550,7 @@
       <c r="Q13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="10" t="s">
+      <c r="R13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="S13" s="3" t="s">
@@ -1263,66 +1567,106 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="22" t="s">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="T14" s="23" t="s">
+      <c r="T14" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="U14" s="23" t="s">
+      <c r="U14" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="V14" s="24" t="s">
+      <c r="V14" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="9"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="25" t="s">
+      <c r="H15" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="S15" s="1" t="s">
@@ -1339,28 +1683,48 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="25"/>
+      <c r="C16" s="9"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="25" t="s">
+      <c r="H16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R16" s="9" t="s">
         <v>32</v>
       </c>
       <c r="S16" s="1" t="s">
@@ -1377,26 +1741,46 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A17" s="20"/>
-      <c r="B17" s="13" t="s">
+      <c r="A17" s="25"/>
+      <c r="B17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="25"/>
+      <c r="C17" s="9"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="25" t="s">
+      <c r="H17" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>28</v>
       </c>
       <c r="S17" s="1" t="s">
@@ -1413,26 +1797,46 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A18" s="20"/>
-      <c r="B18" s="13" t="s">
+      <c r="A18" s="25"/>
+      <c r="B18" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="9"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="25" t="s">
+      <c r="H18" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R18" s="9" t="s">
         <v>24</v>
       </c>
       <c r="S18" s="1" t="s">
@@ -1449,26 +1853,46 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="21"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="26"/>
+      <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="10" t="s">
+      <c r="H19" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="R19" s="5" t="s">
         <v>20</v>
       </c>
       <c r="S19" s="3" t="s">
@@ -1483,6 +1907,12 @@
       <c r="V19" s="4" t="s">
         <v>18</v>
       </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="M23" s="17"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
+      <c r="D27" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/developing/Results Homework DL.xlsx
+++ b/developing/Results Homework DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesco\Documents\Scuola\Università\Materie Università\Anno 4\Deep Learning\Homework\Deep-Learning-Project\developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634054C4-814C-4C49-BDA9-15B09C2BBEE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722713C-1A58-41E9-AEC4-D4060B03069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="12160" windowHeight="12693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
   <si>
     <t>No SMOTE, No Upsample</t>
   </si>
@@ -391,6 +391,66 @@
   </si>
   <si>
     <t>0.501646</t>
+  </si>
+  <si>
+    <t>0.976746</t>
+  </si>
+  <si>
+    <t>0.962360</t>
+  </si>
+  <si>
+    <t>0.968518</t>
+  </si>
+  <si>
+    <t>0.511215</t>
+  </si>
+  <si>
+    <t>0.968565</t>
+  </si>
+  <si>
+    <t>0.968057</t>
+  </si>
+  <si>
+    <t>0.968310</t>
+  </si>
+  <si>
+    <t>0.607393</t>
+  </si>
+  <si>
+    <t>0.487171</t>
+  </si>
+  <si>
+    <t>0.610248</t>
+  </si>
+  <si>
+    <t>0.959487</t>
+  </si>
+  <si>
+    <t>0.740531</t>
+  </si>
+  <si>
+    <t>0.510519</t>
+  </si>
+  <si>
+    <t>0.860438</t>
+  </si>
+  <si>
+    <t>0.958330</t>
+  </si>
+  <si>
+    <t>0.906091</t>
+  </si>
+  <si>
+    <t>0.473023</t>
+  </si>
+  <si>
+    <t>0.909976</t>
+  </si>
+  <si>
+    <t>0.933689</t>
+  </si>
+  <si>
+    <t>0.527398</t>
   </si>
 </sst>
 </file>
@@ -733,7 +793,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -744,27 +804,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -793,7 +832,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1074,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V27"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1092,40 +1151,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="14" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="14" t="s">
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="14" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="16"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
     </row>
     <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="12"/>
-      <c r="B2" s="13"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
       <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
@@ -1188,10 +1247,10 @@
       </c>
     </row>
     <row r="3" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="6"/>
@@ -1214,11 +1273,21 @@
       <c r="L3" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="6"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
+      <c r="M3" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>125</v>
+      </c>
       <c r="R3" s="6" t="s">
         <v>61</v>
       </c>
@@ -1236,10 +1305,10 @@
       </c>
     </row>
     <row r="4" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="9"/>
@@ -1262,11 +1331,21 @@
       <c r="L4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="M4" s="9"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="2"/>
+      <c r="M4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="R4" s="9" t="s">
         <v>57</v>
       </c>
@@ -1284,10 +1363,10 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="9"/>
@@ -1310,11 +1389,21 @@
       <c r="L5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="2"/>
+      <c r="M5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>130</v>
+      </c>
       <c r="R5" s="9" t="s">
         <v>32</v>
       </c>
@@ -1332,8 +1421,8 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A6" s="25"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="9"/>
@@ -1356,11 +1445,21 @@
       <c r="L6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="2"/>
+      <c r="M6" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>134</v>
+      </c>
       <c r="R6" s="9" t="s">
         <v>52</v>
       </c>
@@ -1378,8 +1477,8 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A7" s="25"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="18"/>
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="9"/>
@@ -1402,11 +1501,21 @@
       <c r="L7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="2"/>
+      <c r="M7" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="R7" s="9" t="s">
         <v>48</v>
       </c>
@@ -1424,8 +1533,8 @@
       </c>
     </row>
     <row r="8" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="26"/>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="19"/>
+      <c r="B8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="5"/>
@@ -1448,11 +1557,21 @@
       <c r="L8" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="4"/>
+      <c r="M8" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="R8" s="5" t="s">
         <v>44</v>
       </c>
@@ -1471,40 +1590,40 @@
     </row>
     <row r="11" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="14" t="s">
+      <c r="A12" s="23"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14" t="s">
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="14" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="16"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="22"/>
     </row>
     <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="26"/>
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
@@ -1567,10 +1686,10 @@
       </c>
     </row>
     <row r="14" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="6"/>
@@ -1625,10 +1744,10 @@
       </c>
     </row>
     <row r="15" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="9"/>
@@ -1683,10 +1802,10 @@
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A16" s="24" t="s">
+      <c r="A16" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="9"/>
@@ -1741,8 +1860,8 @@
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A17" s="25"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="9"/>
@@ -1797,8 +1916,8 @@
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A18" s="25"/>
-      <c r="B18" s="20" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="9"/>
@@ -1853,8 +1972,8 @@
       </c>
     </row>
     <row r="19" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="26"/>
-      <c r="B19" s="21" t="s">
+      <c r="A19" s="19"/>
+      <c r="B19" s="14" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="5"/>
@@ -1909,10 +2028,7 @@
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="M23" s="17"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="D27" s="27"/>
+      <c r="M23" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/developing/Results Homework DL.xlsx
+++ b/developing/Results Homework DL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesco\Documents\Scuola\Università\Materie Università\Anno 4\Deep Learning\Homework\Deep-Learning-Project\developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6722713C-1A58-41E9-AEC4-D4060B03069C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D006D-933D-46AB-8D5B-1FF021C6E8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="12160" windowHeight="12693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="142">
-  <si>
-    <t>No SMOTE, No Upsample</t>
-  </si>
-  <si>
-    <t>No SMOTE, Upsample 40000</t>
-  </si>
-  <si>
-    <t>SMOTE 80000, Upsample 40000</t>
-  </si>
-  <si>
-    <t>SMOTE 80000, No Upsample</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="209">
   <si>
     <t>CNN</t>
   </si>
@@ -451,6 +439,219 @@
   </si>
   <si>
     <t>0.527398</t>
+  </si>
+  <si>
+    <t>0.846198</t>
+  </si>
+  <si>
+    <t>0.965297</t>
+  </si>
+  <si>
+    <t>0.898800</t>
+  </si>
+  <si>
+    <t>0.616841</t>
+  </si>
+  <si>
+    <t>0.501919</t>
+  </si>
+  <si>
+    <t>0.492741</t>
+  </si>
+  <si>
+    <t>0.956332</t>
+  </si>
+  <si>
+    <t>0.958784</t>
+  </si>
+  <si>
+    <t>0.957555</t>
+  </si>
+  <si>
+    <t>0.496123</t>
+  </si>
+  <si>
+    <t>0.959589</t>
+  </si>
+  <si>
+    <t>0.959117</t>
+  </si>
+  <si>
+    <t>0.959353</t>
+  </si>
+  <si>
+    <t>0.504390</t>
+  </si>
+  <si>
+    <t>0.819611</t>
+  </si>
+  <si>
+    <t>0.967467</t>
+  </si>
+  <si>
+    <t>0.883077</t>
+  </si>
+  <si>
+    <t>0.655662</t>
+  </si>
+  <si>
+    <t>0.881647</t>
+  </si>
+  <si>
+    <t>0.963955</t>
+  </si>
+  <si>
+    <t>0.919076</t>
+  </si>
+  <si>
+    <t>0.591427</t>
+  </si>
+  <si>
+    <t>0.529219</t>
+  </si>
+  <si>
+    <t>0.973943</t>
+  </si>
+  <si>
+    <t>0.959138</t>
+  </si>
+  <si>
+    <t>0.966386</t>
+  </si>
+  <si>
+    <t>0.495438</t>
+  </si>
+  <si>
+    <t>0.505875</t>
+  </si>
+  <si>
+    <t>0.970080</t>
+  </si>
+  <si>
+    <t>0.959566</t>
+  </si>
+  <si>
+    <t>0.964722</t>
+  </si>
+  <si>
+    <t>0.500679</t>
+  </si>
+  <si>
+    <t>No CW, No SMOTE, No Upsample</t>
+  </si>
+  <si>
+    <t>CW, No SMOTE, No Upsample</t>
+  </si>
+  <si>
+    <t>CW, No SMOTE, Upsample 40000</t>
+  </si>
+  <si>
+    <t>CW, SMOTE 80000, No Upsample</t>
+  </si>
+  <si>
+    <t>CW, SMOTE 80000, Upsample 40000</t>
+  </si>
+  <si>
+    <t>0.977163</t>
+  </si>
+  <si>
+    <t>0.965068</t>
+  </si>
+  <si>
+    <t>0.969584</t>
+  </si>
+  <si>
+    <t>0.523861</t>
+  </si>
+  <si>
+    <t>0.511226</t>
+  </si>
+  <si>
+    <t>0.492562</t>
+  </si>
+  <si>
+    <t>0.963528</t>
+  </si>
+  <si>
+    <t>0.959137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.961322 </t>
+  </si>
+  <si>
+    <t>0.498681</t>
+  </si>
+  <si>
+    <t>0.956029</t>
+  </si>
+  <si>
+    <t>0.957601</t>
+  </si>
+  <si>
+    <t>0.488332</t>
+  </si>
+  <si>
+    <t>0.979170</t>
+  </si>
+  <si>
+    <t>0.970055</t>
+  </si>
+  <si>
+    <t>0.970035</t>
+  </si>
+  <si>
+    <t>0.515117</t>
+  </si>
+  <si>
+    <t>0.976670</t>
+  </si>
+  <si>
+    <t>0.963010</t>
+  </si>
+  <si>
+    <t>0.968720</t>
+  </si>
+  <si>
+    <t>0.514729</t>
+  </si>
+  <si>
+    <t>0.514958</t>
+  </si>
+  <si>
+    <t>0.976367</t>
+  </si>
+  <si>
+    <t>0.959542</t>
+  </si>
+  <si>
+    <t>0.967621</t>
+  </si>
+  <si>
+    <t>0.521749</t>
+  </si>
+  <si>
+    <t>0.978980</t>
+  </si>
+  <si>
+    <t>0.958696</t>
+  </si>
+  <si>
+    <t>0.968732</t>
+  </si>
+  <si>
+    <t>0.492364</t>
+  </si>
+  <si>
+    <t>0.965536</t>
+  </si>
+  <si>
+    <t>0.959591</t>
+  </si>
+  <si>
+    <t>0.962535</t>
+  </si>
+  <si>
+    <t>0.505338</t>
   </si>
 </sst>
 </file>
@@ -490,7 +691,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -789,11 +990,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -832,15 +1057,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -852,6 +1068,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1133,917 +1376,1258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V23"/>
+  <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="2" max="2" width="9.703125" customWidth="1"/>
-    <col min="3" max="3" width="7.87890625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.9375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.46875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.41015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.52734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="22" width="8.234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="8.234375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="20" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="32"/>
+      <c r="W1" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
+      <c r="AA1" s="32"/>
+    </row>
+    <row r="2" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="20" t="s">
+      <c r="B3" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="T3" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="U3" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="V3" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="X3" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y3" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA3" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="V4" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="22"/>
+      <c r="C5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="W5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="2" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="S3" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="T3" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="U3" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="V3" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A5" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A6" s="18"/>
       <c r="B6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>180</v>
+      </c>
       <c r="H6" s="9" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>89</v>
+        <v>28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>92</v>
+        <v>143</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>132</v>
+        <v>86</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>131</v>
+        <v>85</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>133</v>
+        <v>87</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="R6" s="9" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="T6" s="1" t="s">
-        <v>52</v>
+        <v>127</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>50</v>
+        <v>130</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA6" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A7" s="18"/>
       <c r="B7" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="H7" s="9" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>136</v>
+        <v>90</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>135</v>
+        <v>89</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>137</v>
+        <v>91</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>138</v>
+        <v>92</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>46</v>
+        <v>134</v>
+      </c>
+      <c r="W7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA7" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="T8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="30" t="s">
+        <v>172</v>
+      </c>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="32"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5" t="s">
+      <c r="E13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="V13" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="W13" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" s="26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="S14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="T14" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="U14" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="L8" s="4" t="s">
+      <c r="V14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="M8" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>42</v>
+      <c r="W14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y14" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" s="8" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A12" s="23"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="20" t="s">
+    <row r="15" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="20" t="s">
+      <c r="C15" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W15" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA15" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.5">
+      <c r="A16" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="22"/>
+      <c r="C16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="W16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA16" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="13" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="25"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="V13" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="N14" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q14" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="S14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="T14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="U14" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="V14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="M15" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.5">
-      <c r="A16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="9"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="V16" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A17" s="18"/>
       <c r="B17" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>200</v>
+      </c>
       <c r="H17" s="9" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>74</v>
+        <v>162</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>161</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>72</v>
+        <v>163</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>112</v>
+        <v>68</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="R17" s="9" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>29</v>
+        <v>107</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>28</v>
+        <v>106</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>27</v>
+        <v>108</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
+      </c>
+      <c r="W17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA17" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.5">
       <c r="A18" s="18"/>
       <c r="B18" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="2"/>
+        <v>5</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>204</v>
+      </c>
       <c r="H18" s="9" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>67</v>
+        <v>165</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>115</v>
+        <v>66</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>114</v>
+        <v>65</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>25</v>
+        <v>111</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>22</v>
+        <v>113</v>
+      </c>
+      <c r="W18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA18" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="19"/>
       <c r="B19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+        <v>6</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="H19" s="5" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>66</v>
+        <v>167</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>64</v>
+        <v>168</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>63</v>
+        <v>169</v>
       </c>
       <c r="M19" s="5" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>119</v>
+        <v>62</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="P19" s="3" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="R19" s="5" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>21</v>
+        <v>115</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
       <c r="U19" s="3" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>18</v>
+        <v>117</v>
+      </c>
+      <c r="W19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA19" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.5">
       <c r="M23" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="W1:AA1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A16:A19"/>
-    <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
     <mergeCell ref="R1:V1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A12:B13"/>
-    <mergeCell ref="C12:G12"/>
     <mergeCell ref="H12:L12"/>
     <mergeCell ref="M12:Q12"/>
-    <mergeCell ref="R12:V12"/>
+    <mergeCell ref="W12:AA12"/>
     <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/developing/Results Homework DL.xlsx
+++ b/developing/Results Homework DL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cesco\Documents\Scuola\Università\Materie Università\Anno 4\Deep Learning\Homework\Deep-Learning-Project\developing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68D006D-933D-46AB-8D5B-1FF021C6E8F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972EAF5A-9318-4725-ADA9-7DDA8E2E7CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1048,6 +1048,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1068,33 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,7 +1379,7 @@
   <dimension ref="A1:AA23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:AA12"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -1389,120 +1389,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="27" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30" t="s">
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="30" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="30" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
     </row>
     <row r="2" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="24" t="s">
+      <c r="M2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA2" s="26" t="s">
+      <c r="AA2" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1673,7 +1673,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -1756,7 +1756,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A6" s="18"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
@@ -1837,7 +1837,7 @@
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A7" s="18"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="13" t="s">
         <v>5</v>
       </c>
@@ -1918,7 +1918,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="19"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="14" t="s">
         <v>6</v>
       </c>
@@ -2000,120 +2000,120 @@
     </row>
     <row r="11" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004"/>
     <row r="12" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="27" t="s">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="23" t="s">
         <v>170</v>
       </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="27" t="s">
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="23" t="s">
         <v>171</v>
       </c>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="30" t="s">
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="30" t="s">
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="30" t="s">
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="22"/>
+      <c r="W12" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="32"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="22"/>
     </row>
     <row r="13" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="24" t="s">
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="25" t="s">
+      <c r="E13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="25" t="s">
+      <c r="F13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="P13" s="25" t="s">
+      <c r="P13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Q13" s="26" t="s">
+      <c r="Q13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="R13" s="24" t="s">
+      <c r="R13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="S13" s="25" t="s">
+      <c r="S13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="T13" s="25" t="s">
+      <c r="T13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="U13" s="25" t="s">
+      <c r="U13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="V13" s="26" t="s">
+      <c r="V13" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="W13" s="24" t="s">
+      <c r="W13" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="X13" s="25" t="s">
+      <c r="X13" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="Y13" s="25" t="s">
+      <c r="Y13" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Z13" s="25" t="s">
+      <c r="Z13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="AA13" s="26" t="s">
+      <c r="AA13" s="19" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2284,7 +2284,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="26" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -2367,7 +2367,7 @@
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A17" s="18"/>
+      <c r="A17" s="27"/>
       <c r="B17" s="13" t="s">
         <v>4</v>
       </c>
@@ -2448,7 +2448,7 @@
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.5">
-      <c r="A18" s="18"/>
+      <c r="A18" s="27"/>
       <c r="B18" s="13" t="s">
         <v>5</v>
       </c>
@@ -2529,7 +2529,7 @@
       </c>
     </row>
     <row r="19" spans="1:27" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19"/>
+      <c r="A19" s="28"/>
       <c r="B19" s="14" t="s">
         <v>6</v>
       </c>
@@ -2630,5 +2630,6 @@
     <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>